--- a/ig/2.0.0/StructureDefinition-ShareableViewDefinition.xlsx
+++ b/ig/2.0.0/StructureDefinition-ShareableViewDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T20:11:57+10:00</t>
+    <t>2024-10-09T15:18:18+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
